--- a/pred_ohlcv/54/2019-10-21 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-21 MTL ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C2" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D2" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E2" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F2" t="n">
-        <v>3704.3488</v>
+        <v>3.44</v>
       </c>
       <c r="G2" t="n">
-        <v>355.25</v>
+        <v>355.2833333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>354</v>
       </c>
       <c r="C3" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D3" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E3" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F3" t="n">
-        <v>2140.21448117</v>
+        <v>3704.3488</v>
       </c>
       <c r="G3" t="n">
-        <v>355.2833333333334</v>
+        <v>355.25</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C4" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D4" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F4" t="n">
-        <v>234.3086</v>
+        <v>2140.21448117</v>
       </c>
       <c r="G4" t="n">
-        <v>355.2666666666667</v>
+        <v>355.2833333333334</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>208.4</v>
+        <v>234.3086</v>
       </c>
       <c r="G5" t="n">
-        <v>355.2333333333333</v>
+        <v>355.2666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D6" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F6" t="n">
-        <v>245.6127</v>
+        <v>208.4</v>
       </c>
       <c r="G6" t="n">
         <v>355.2333333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D7" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E7" t="n">
         <v>352</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>245.6127</v>
       </c>
       <c r="G7" t="n">
-        <v>355.2</v>
+        <v>355.2333333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C8" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D8" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E8" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>355.1833333333333</v>
+        <v>355.2</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>354</v>
       </c>
       <c r="C9" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D9" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E9" t="n">
         <v>354</v>
       </c>
       <c r="F9" t="n">
-        <v>1722.9672</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>355.2166666666666</v>
+        <v>355.1833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>354</v>
       </c>
       <c r="C10" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D10" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E10" t="n">
         <v>354</v>
       </c>
       <c r="F10" t="n">
-        <v>3386.7053</v>
+        <v>1722.9672</v>
       </c>
       <c r="G10" t="n">
-        <v>355.2333333333333</v>
+        <v>355.2166666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C11" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E11" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11" t="n">
-        <v>2211.5109</v>
+        <v>3386.7053</v>
       </c>
       <c r="G11" t="n">
-        <v>355.2833333333334</v>
+        <v>355.2333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>356</v>
+      </c>
+      <c r="C12" t="n">
         <v>358</v>
       </c>
-      <c r="C12" t="n">
-        <v>359</v>
-      </c>
       <c r="D12" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E12" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F12" t="n">
-        <v>1374.1065</v>
+        <v>2211.5109</v>
       </c>
       <c r="G12" t="n">
-        <v>355.35</v>
+        <v>355.2833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C13" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D13" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E13" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F13" t="n">
-        <v>455.52</v>
+        <v>1374.1065</v>
       </c>
       <c r="G13" t="n">
-        <v>355.4</v>
+        <v>355.35</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C14" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D14" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E14" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F14" t="n">
-        <v>1500.823</v>
+        <v>455.52</v>
       </c>
       <c r="G14" t="n">
-        <v>355.4833333333333</v>
+        <v>355.4</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>359</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>1500.823</v>
       </c>
       <c r="G15" t="n">
-        <v>355.5666666666667</v>
+        <v>355.4833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E16" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F16" t="n">
-        <v>1437.2173</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>355.6166666666667</v>
+        <v>355.5666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C17" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D17" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E17" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F17" t="n">
-        <v>2507.9132</v>
+        <v>1437.2173</v>
       </c>
       <c r="G17" t="n">
-        <v>355.7166666666666</v>
+        <v>355.6166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" t="n">
         <v>359</v>
@@ -833,15 +886,18 @@
         <v>359</v>
       </c>
       <c r="E18" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F18" t="n">
-        <v>1040.2318</v>
+        <v>2507.9132</v>
       </c>
       <c r="G18" t="n">
-        <v>355.8</v>
+        <v>355.7166666666666</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C19" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D19" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E19" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>1040.2318</v>
       </c>
       <c r="G19" t="n">
-        <v>355.8833333333333</v>
+        <v>355.8</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>361</v>
       </c>
       <c r="F20" t="n">
-        <v>474.7974</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>355.9666666666666</v>
+        <v>355.8833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,25 +964,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C21" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D21" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E21" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F21" t="n">
-        <v>1040.2317</v>
+        <v>474.7974</v>
       </c>
       <c r="G21" t="n">
-        <v>355.9833333333333</v>
+        <v>355.9666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +993,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D22" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E22" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F22" t="n">
+        <v>1040.2317</v>
+      </c>
+      <c r="G22" t="n">
+        <v>355.9833333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>356.0333333333334</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -966,12 +1034,15 @@
         <v>361</v>
       </c>
       <c r="F23" t="n">
-        <v>2154.2707</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>356.0666666666667</v>
+        <v>356.0333333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>361</v>
       </c>
       <c r="C24" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D24" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24" t="n">
         <v>361</v>
       </c>
       <c r="F24" t="n">
-        <v>176.7447</v>
+        <v>2154.2707</v>
       </c>
       <c r="G24" t="n">
-        <v>356.15</v>
+        <v>356.0666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>361</v>
+      </c>
+      <c r="C25" t="n">
         <v>362</v>
       </c>
-      <c r="C25" t="n">
-        <v>364</v>
-      </c>
       <c r="D25" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E25" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F25" t="n">
-        <v>2.1336</v>
+        <v>176.7447</v>
       </c>
       <c r="G25" t="n">
-        <v>356.25</v>
+        <v>356.15</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D26" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E26" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F26" t="n">
-        <v>1891.7756</v>
+        <v>2.1336</v>
       </c>
       <c r="G26" t="n">
-        <v>356.35</v>
+        <v>356.25</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C27" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D27" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E27" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F27" t="n">
-        <v>529.29841325</v>
+        <v>1891.7756</v>
       </c>
       <c r="G27" t="n">
-        <v>356.4</v>
+        <v>356.35</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C28" t="n">
         <v>360</v>
       </c>
       <c r="D28" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E28" t="n">
         <v>360</v>
       </c>
       <c r="F28" t="n">
-        <v>45.71388888</v>
+        <v>529.29841325</v>
       </c>
       <c r="G28" t="n">
-        <v>356.45</v>
+        <v>356.4</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D29" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E29" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>45.71388888</v>
       </c>
       <c r="G29" t="n">
-        <v>356.4833333333333</v>
+        <v>356.45</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C30" t="n">
         <v>361</v>
@@ -1145,15 +1234,18 @@
         <v>361</v>
       </c>
       <c r="E30" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F30" t="n">
-        <v>2776.253</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>356.5666666666667</v>
+        <v>356.4833333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>360</v>
       </c>
       <c r="C31" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D31" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E31" t="n">
         <v>359</v>
       </c>
       <c r="F31" t="n">
-        <v>2593.1555</v>
+        <v>2776.253</v>
       </c>
       <c r="G31" t="n">
-        <v>356.6333333333333</v>
+        <v>356.5666666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1197,15 +1292,18 @@
         <v>360</v>
       </c>
       <c r="E32" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F32" t="n">
-        <v>4382.7227</v>
+        <v>2593.1555</v>
       </c>
       <c r="G32" t="n">
-        <v>356.7</v>
+        <v>356.6333333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>360</v>
       </c>
       <c r="F33" t="n">
-        <v>568.933</v>
+        <v>4382.7227</v>
       </c>
       <c r="G33" t="n">
-        <v>356.7666666666667</v>
+        <v>356.7</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>360</v>
       </c>
       <c r="F34" t="n">
-        <v>221.0663</v>
+        <v>568.933</v>
       </c>
       <c r="G34" t="n">
-        <v>356.8</v>
+        <v>356.7666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>360</v>
       </c>
       <c r="F35" t="n">
-        <v>381.4631</v>
+        <v>221.0663</v>
       </c>
       <c r="G35" t="n">
-        <v>356.8333333333333</v>
+        <v>356.8</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>360</v>
       </c>
       <c r="F36" t="n">
-        <v>903.2709</v>
+        <v>381.4631</v>
       </c>
       <c r="G36" t="n">
-        <v>356.8833333333333</v>
+        <v>356.8333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>360</v>
       </c>
       <c r="C37" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D37" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
         <v>360</v>
       </c>
       <c r="F37" t="n">
-        <v>3220</v>
+        <v>903.2709</v>
       </c>
       <c r="G37" t="n">
-        <v>356.9666666666666</v>
+        <v>356.8833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>360</v>
       </c>
       <c r="C38" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D38" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E38" t="n">
         <v>360</v>
       </c>
       <c r="F38" t="n">
-        <v>1460.6388</v>
+        <v>3220</v>
       </c>
       <c r="G38" t="n">
-        <v>357.0166666666667</v>
+        <v>356.9666666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C39" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D39" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E39" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>1460.6388</v>
       </c>
       <c r="G39" t="n">
-        <v>357.0666666666667</v>
+        <v>357.0166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C40" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D40" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E40" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F40" t="n">
-        <v>5600</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>357.1166666666667</v>
+        <v>357.0666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D41" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E41" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F41" t="n">
-        <v>3218.7894</v>
+        <v>5600</v>
       </c>
       <c r="G41" t="n">
-        <v>357.1666666666667</v>
+        <v>357.1166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>359</v>
       </c>
       <c r="F42" t="n">
-        <v>741.2223</v>
+        <v>3218.7894</v>
       </c>
       <c r="G42" t="n">
-        <v>357.2166666666666</v>
+        <v>357.1666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>359</v>
       </c>
       <c r="F43" t="n">
-        <v>161.6845</v>
+        <v>741.2223</v>
       </c>
       <c r="G43" t="n">
-        <v>357.2833333333334</v>
+        <v>357.2166666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>359</v>
       </c>
       <c r="F44" t="n">
-        <v>794.6378</v>
+        <v>161.6845</v>
       </c>
       <c r="G44" t="n">
-        <v>357.3666666666667</v>
+        <v>357.2833333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>359</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0001</v>
+        <v>794.6378</v>
       </c>
       <c r="G45" t="n">
-        <v>357.45</v>
+        <v>357.3666666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C46" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D46" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E46" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G46" t="n">
-        <v>357.55</v>
+        <v>357.45</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C47" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D47" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E47" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F47" t="n">
-        <v>1205.6217</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>357.6166666666667</v>
+        <v>357.55</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C48" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D48" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E48" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F48" t="n">
-        <v>742.0877</v>
+        <v>1205.6217</v>
       </c>
       <c r="G48" t="n">
-        <v>357.7333333333333</v>
+        <v>357.6166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C49" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D49" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E49" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F49" t="n">
-        <v>16.6901</v>
+        <v>742.0877</v>
       </c>
       <c r="G49" t="n">
-        <v>357.85</v>
+        <v>357.7333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C50" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D50" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E50" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F50" t="n">
-        <v>619.558</v>
+        <v>16.6901</v>
       </c>
       <c r="G50" t="n">
-        <v>357.9833333333333</v>
+        <v>357.85</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C51" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D51" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E51" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F51" t="n">
-        <v>3016.0546</v>
+        <v>619.558</v>
       </c>
       <c r="G51" t="n">
-        <v>358.1</v>
+        <v>357.9833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>359</v>
       </c>
       <c r="F52" t="n">
-        <v>2662.5546</v>
+        <v>3016.0546</v>
       </c>
       <c r="G52" t="n">
-        <v>358.2333333333333</v>
+        <v>358.1</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C53" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D53" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E53" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F53" t="n">
-        <v>8333.33333333</v>
+        <v>2662.5546</v>
       </c>
       <c r="G53" t="n">
-        <v>358.3</v>
+        <v>358.2333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>360</v>
       </c>
       <c r="F54" t="n">
-        <v>8333.3333</v>
+        <v>8333.33333333</v>
       </c>
       <c r="G54" t="n">
-        <v>358.3666666666667</v>
+        <v>358.3</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>360</v>
       </c>
       <c r="F55" t="n">
-        <v>131.9749</v>
+        <v>8333.3333</v>
       </c>
       <c r="G55" t="n">
-        <v>358.5</v>
+        <v>358.3666666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>360</v>
       </c>
       <c r="F56" t="n">
-        <v>132.9804</v>
+        <v>131.9749</v>
       </c>
       <c r="G56" t="n">
-        <v>358.6333333333333</v>
+        <v>358.5</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>360</v>
       </c>
       <c r="F57" t="n">
-        <v>8027.77777777</v>
+        <v>132.9804</v>
       </c>
       <c r="G57" t="n">
-        <v>358.7</v>
+        <v>358.6333333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>360</v>
       </c>
       <c r="F58" t="n">
-        <v>944.4666</v>
+        <v>8027.77777777</v>
       </c>
       <c r="G58" t="n">
-        <v>358.7666666666667</v>
+        <v>358.7</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>360</v>
       </c>
       <c r="F59" t="n">
-        <v>452.7463</v>
+        <v>944.4666</v>
       </c>
       <c r="G59" t="n">
-        <v>358.85</v>
+        <v>358.7666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E60" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F60" t="n">
-        <v>52.6217</v>
+        <v>452.7463</v>
       </c>
       <c r="G60" t="n">
-        <v>358.9</v>
+        <v>358.85</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C61" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D61" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E61" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>52.6217</v>
       </c>
       <c r="G61" t="n">
-        <v>358.9666666666666</v>
+        <v>358.9</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>55.34166666</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>359.0833333333333</v>
+        <v>358.9666666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C63" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D63" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E63" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F63" t="n">
-        <v>16481.6317</v>
+        <v>55.34166666</v>
       </c>
       <c r="G63" t="n">
         <v>359.0833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C64" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D64" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E64" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>16481.6317</v>
       </c>
       <c r="G64" t="n">
-        <v>359.2</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C65" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D65" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E65" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>359.3</v>
+        <v>359.2</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C66" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D66" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E66" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>359.35</v>
+        <v>359.3</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>357</v>
       </c>
       <c r="C67" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D67" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E67" t="n">
         <v>357</v>
       </c>
       <c r="F67" t="n">
-        <v>88.39230000000001</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>359.4666666666666</v>
+        <v>359.35</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C68" t="n">
         <v>359</v>
@@ -2133,15 +2336,18 @@
         <v>359</v>
       </c>
       <c r="E68" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F68" t="n">
-        <v>124.0984</v>
+        <v>88.39230000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>359.55</v>
+        <v>359.4666666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>359</v>
       </c>
       <c r="F69" t="n">
-        <v>3401.5786</v>
+        <v>124.0984</v>
       </c>
       <c r="G69" t="n">
-        <v>359.6166666666667</v>
+        <v>359.55</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>359</v>
       </c>
       <c r="C70" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D70" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E70" t="n">
         <v>359</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>3401.5786</v>
       </c>
       <c r="G70" t="n">
-        <v>359.7166666666666</v>
+        <v>359.6166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>359</v>
       </c>
       <c r="C71" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D71" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E71" t="n">
         <v>359</v>
       </c>
       <c r="F71" t="n">
-        <v>238.4499</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>359.7333333333333</v>
+        <v>359.7166666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C72" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D72" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E72" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F72" t="n">
-        <v>606.4708000000001</v>
+        <v>238.4499</v>
       </c>
       <c r="G72" t="n">
-        <v>359.7166666666666</v>
+        <v>359.7333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C73" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D73" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E73" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>606.4708000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>359.75</v>
+        <v>359.7166666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>359</v>
       </c>
       <c r="F74" t="n">
-        <v>3840</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>359.75</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>359</v>
       </c>
       <c r="F75" t="n">
-        <v>527.1581</v>
+        <v>3840</v>
       </c>
       <c r="G75" t="n">
         <v>359.75</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C76" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D76" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E76" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F76" t="n">
-        <v>154</v>
+        <v>527.1581</v>
       </c>
       <c r="G76" t="n">
         <v>359.75</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>357</v>
       </c>
       <c r="F77" t="n">
-        <v>220.588</v>
+        <v>154</v>
       </c>
       <c r="G77" t="n">
-        <v>359.7166666666666</v>
+        <v>359.75</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>357</v>
       </c>
       <c r="C78" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D78" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E78" t="n">
         <v>357</v>
       </c>
       <c r="F78" t="n">
-        <v>11339.1447</v>
+        <v>220.588</v>
       </c>
       <c r="G78" t="n">
         <v>359.7166666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C79" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D79" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E79" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F79" t="n">
-        <v>409.6229</v>
+        <v>11339.1447</v>
       </c>
       <c r="G79" t="n">
-        <v>359.6666666666667</v>
+        <v>359.7166666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>358</v>
       </c>
       <c r="C80" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D80" t="n">
         <v>358</v>
       </c>
       <c r="E80" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F80" t="n">
-        <v>464.047</v>
+        <v>409.6229</v>
       </c>
       <c r="G80" t="n">
-        <v>359.6</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C81" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D81" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E81" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F81" t="n">
-        <v>25</v>
+        <v>464.047</v>
       </c>
       <c r="G81" t="n">
-        <v>359.5666666666667</v>
+        <v>359.6</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C82" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D82" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E82" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F82" t="n">
-        <v>93.6568</v>
+        <v>25</v>
       </c>
       <c r="G82" t="n">
-        <v>359.5166666666667</v>
+        <v>359.5666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>358</v>
       </c>
       <c r="F83" t="n">
-        <v>339.7359</v>
+        <v>93.6568</v>
       </c>
       <c r="G83" t="n">
-        <v>359.4666666666666</v>
+        <v>359.5166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>358</v>
       </c>
       <c r="F84" t="n">
-        <v>332.1965</v>
+        <v>339.7359</v>
       </c>
       <c r="G84" t="n">
-        <v>359.4</v>
+        <v>359.4666666666666</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>358</v>
       </c>
       <c r="F85" t="n">
-        <v>100.0001</v>
+        <v>332.1965</v>
       </c>
       <c r="G85" t="n">
-        <v>359.3</v>
+        <v>359.4</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C86" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D86" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E86" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F86" t="n">
-        <v>3021.1187</v>
+        <v>100.0001</v>
       </c>
       <c r="G86" t="n">
-        <v>359.2</v>
+        <v>359.3</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>357</v>
       </c>
       <c r="F87" t="n">
-        <v>279.4134</v>
+        <v>3021.1187</v>
       </c>
       <c r="G87" t="n">
-        <v>359.15</v>
+        <v>359.2</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C88" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D88" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E88" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F88" t="n">
-        <v>4915.5116</v>
+        <v>279.4134</v>
       </c>
       <c r="G88" t="n">
-        <v>359.0833333333333</v>
+        <v>359.15</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C89" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D89" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E89" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F89" t="n">
-        <v>5315.4433</v>
+        <v>4915.5116</v>
       </c>
       <c r="G89" t="n">
-        <v>359.0333333333334</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>357</v>
       </c>
       <c r="C90" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D90" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E90" t="n">
         <v>357</v>
       </c>
       <c r="F90" t="n">
-        <v>4752.8743</v>
+        <v>5315.4433</v>
       </c>
       <c r="G90" t="n">
-        <v>358.9666666666666</v>
+        <v>359.0333333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C91" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D91" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E91" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>4752.8743</v>
       </c>
       <c r="G91" t="n">
-        <v>358.9333333333333</v>
+        <v>358.9666666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>358</v>
       </c>
       <c r="F92" t="n">
-        <v>233.0479</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>358.9</v>
+        <v>358.9333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C93" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D93" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E93" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F93" t="n">
-        <v>5469.9359</v>
+        <v>233.0479</v>
       </c>
       <c r="G93" t="n">
-        <v>358.8833333333333</v>
+        <v>358.9</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C94" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D94" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E94" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F94" t="n">
-        <v>18470.7436</v>
+        <v>5469.9359</v>
       </c>
       <c r="G94" t="n">
-        <v>358.8333333333333</v>
+        <v>358.8833333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C95" t="n">
         <v>357</v>
       </c>
       <c r="D95" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E95" t="n">
         <v>357</v>
       </c>
       <c r="F95" t="n">
-        <v>2964.3968</v>
+        <v>18470.7436</v>
       </c>
       <c r="G95" t="n">
-        <v>358.7833333333334</v>
+        <v>358.8333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>357</v>
       </c>
       <c r="F96" t="n">
-        <v>5627.963</v>
+        <v>2964.3968</v>
       </c>
       <c r="G96" t="n">
-        <v>358.7333333333333</v>
+        <v>358.7833333333334</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C97" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D97" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E97" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>5627.963</v>
       </c>
       <c r="G97" t="n">
-        <v>358.6666666666667</v>
+        <v>358.7333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>358</v>
       </c>
       <c r="F98" t="n">
-        <v>221.715</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>358.6333333333333</v>
+        <v>358.6666666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C99" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D99" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E99" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F99" t="n">
-        <v>10305.8724</v>
+        <v>221.715</v>
       </c>
       <c r="G99" t="n">
-        <v>358.55</v>
+        <v>358.6333333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>357</v>
       </c>
       <c r="F100" t="n">
-        <v>2610.1858</v>
+        <v>10305.8724</v>
       </c>
       <c r="G100" t="n">
-        <v>358.5</v>
+        <v>358.55</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>357</v>
       </c>
       <c r="F101" t="n">
-        <v>3440.1113</v>
+        <v>2610.1858</v>
       </c>
       <c r="G101" t="n">
-        <v>358.4666666666666</v>
+        <v>358.5</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C102" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D102" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E102" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6685</v>
+        <v>3440.1113</v>
       </c>
       <c r="G102" t="n">
-        <v>358.45</v>
+        <v>358.4666666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>358</v>
       </c>
       <c r="F103" t="n">
-        <v>270.153</v>
+        <v>0.6685</v>
       </c>
       <c r="G103" t="n">
-        <v>358.4333333333333</v>
+        <v>358.45</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>358</v>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>270.153</v>
       </c>
       <c r="G104" t="n">
-        <v>358.4166666666667</v>
+        <v>358.4333333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E105" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F105" t="n">
-        <v>5456.5885</v>
+        <v>300</v>
       </c>
       <c r="G105" t="n">
         <v>358.4166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>359</v>
       </c>
       <c r="F106" t="n">
-        <v>3342.6183</v>
+        <v>5456.5885</v>
       </c>
       <c r="G106" t="n">
-        <v>358.4</v>
+        <v>358.4166666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>359</v>
       </c>
       <c r="F107" t="n">
-        <v>137.4114</v>
+        <v>3342.6183</v>
       </c>
       <c r="G107" t="n">
         <v>358.4</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C108" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D108" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E108" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F108" t="n">
-        <v>418.6239</v>
+        <v>137.4114</v>
       </c>
       <c r="G108" t="n">
-        <v>358.35</v>
+        <v>358.4</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C109" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D109" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E109" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F109" t="n">
-        <v>9931.691699999999</v>
+        <v>418.6239</v>
       </c>
       <c r="G109" t="n">
         <v>358.35</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C110" t="n">
         <v>359</v>
       </c>
       <c r="D110" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E110" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>9931.691699999999</v>
       </c>
       <c r="G110" t="n">
-        <v>358.3333333333333</v>
+        <v>358.35</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>359</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
         <v>358.3333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C112" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D112" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E112" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F112" t="n">
-        <v>199.25</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>358.3</v>
+        <v>358.3333333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>357</v>
       </c>
       <c r="F113" t="n">
-        <v>6305.8219</v>
+        <v>199.25</v>
       </c>
       <c r="G113" t="n">
-        <v>358.25</v>
+        <v>358.3</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C114" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D114" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E114" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F114" t="n">
-        <v>30251.4605</v>
+        <v>6305.8219</v>
       </c>
       <c r="G114" t="n">
-        <v>358.1833333333333</v>
+        <v>358.25</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>356</v>
       </c>
       <c r="F115" t="n">
-        <v>1340</v>
+        <v>30251.4605</v>
       </c>
       <c r="G115" t="n">
-        <v>358.1166666666667</v>
+        <v>358.1833333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>356</v>
       </c>
       <c r="F116" t="n">
-        <v>20.8686</v>
+        <v>1340</v>
       </c>
       <c r="G116" t="n">
-        <v>358.05</v>
+        <v>358.1166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C117" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D117" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E117" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F117" t="n">
-        <v>259.768</v>
+        <v>20.8686</v>
       </c>
       <c r="G117" t="n">
-        <v>357.9666666666666</v>
+        <v>358.05</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>355</v>
       </c>
       <c r="F118" t="n">
-        <v>131.8336</v>
+        <v>259.768</v>
       </c>
       <c r="G118" t="n">
-        <v>357.8833333333333</v>
+        <v>357.9666666666666</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C119" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D119" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E119" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>131.8336</v>
       </c>
       <c r="G119" t="n">
-        <v>357.8333333333333</v>
+        <v>357.8833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>357</v>
       </c>
       <c r="F120" t="n">
-        <v>601.6889</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>357.8</v>
+        <v>357.8333333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>357</v>
       </c>
       <c r="F121" t="n">
-        <v>573.9465</v>
+        <v>601.6889</v>
       </c>
       <c r="G121" t="n">
-        <v>357.75</v>
+        <v>357.8</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C122" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D122" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E122" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F122" t="n">
-        <v>408.5988</v>
+        <v>573.9465</v>
       </c>
       <c r="G122" t="n">
-        <v>357.6666666666667</v>
+        <v>357.75</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C123" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D123" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E123" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F123" t="n">
-        <v>4378.7815126</v>
+        <v>408.5988</v>
       </c>
       <c r="G123" t="n">
-        <v>357.6833333333333</v>
+        <v>357.6666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C124" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D124" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E124" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F124" t="n">
-        <v>236.9603</v>
+        <v>4378.7815126</v>
       </c>
       <c r="G124" t="n">
-        <v>357.6</v>
+        <v>357.6833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C125" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D125" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E125" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F125" t="n">
-        <v>43.3583</v>
+        <v>236.9603</v>
       </c>
       <c r="G125" t="n">
-        <v>357.55</v>
+        <v>357.6</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C126" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D126" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E126" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F126" t="n">
-        <v>5527.487</v>
+        <v>43.3583</v>
       </c>
       <c r="G126" t="n">
-        <v>357.4833333333333</v>
+        <v>357.55</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C127" t="n">
         <v>353</v>
       </c>
       <c r="D127" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E127" t="n">
         <v>353</v>
       </c>
       <c r="F127" t="n">
-        <v>733.5157</v>
+        <v>5527.487</v>
       </c>
       <c r="G127" t="n">
-        <v>357.3833333333333</v>
+        <v>357.4833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>353</v>
       </c>
       <c r="C128" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D128" t="n">
         <v>353</v>
       </c>
       <c r="E128" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F128" t="n">
-        <v>10129.0435</v>
+        <v>733.5157</v>
       </c>
       <c r="G128" t="n">
-        <v>357.2666666666667</v>
+        <v>357.3833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C129" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D129" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E129" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F129" t="n">
-        <v>1417.3389</v>
+        <v>10129.0435</v>
       </c>
       <c r="G129" t="n">
-        <v>357.1833333333333</v>
+        <v>357.2666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C130" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D130" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E130" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F130" t="n">
-        <v>20.7813</v>
+        <v>1417.3389</v>
       </c>
       <c r="G130" t="n">
-        <v>357.0666666666667</v>
+        <v>357.1833333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C131" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D131" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E131" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F131" t="n">
-        <v>1500</v>
+        <v>20.7813</v>
       </c>
       <c r="G131" t="n">
-        <v>356.9833333333333</v>
+        <v>357.0666666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C132" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D132" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E132" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F132" t="n">
-        <v>379.0635</v>
+        <v>1500</v>
       </c>
       <c r="G132" t="n">
-        <v>356.9</v>
+        <v>356.9833333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C133" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D133" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E133" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F133" t="n">
-        <v>37855.1368</v>
+        <v>379.0635</v>
       </c>
       <c r="G133" t="n">
-        <v>356.75</v>
+        <v>356.9</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C134" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D134" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E134" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F134" t="n">
-        <v>1.1019</v>
+        <v>37855.1368</v>
       </c>
       <c r="G134" t="n">
-        <v>356.65</v>
+        <v>356.75</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C135" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D135" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E135" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F135" t="n">
-        <v>277.1996</v>
+        <v>1.1019</v>
       </c>
       <c r="G135" t="n">
-        <v>356.5166666666667</v>
+        <v>356.65</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C136" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D136" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E136" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F136" t="n">
-        <v>1.18</v>
+        <v>277.1996</v>
       </c>
       <c r="G136" t="n">
-        <v>356.45</v>
+        <v>356.5166666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>353</v>
       </c>
       <c r="F137" t="n">
-        <v>3544.388</v>
+        <v>1.18</v>
       </c>
       <c r="G137" t="n">
-        <v>356.3833333333333</v>
+        <v>356.45</v>
       </c>
       <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>353</v>
       </c>
       <c r="F138" t="n">
-        <v>14.1643</v>
+        <v>3544.388</v>
       </c>
       <c r="G138" t="n">
-        <v>356.2833333333334</v>
+        <v>356.3833333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>353</v>
       </c>
       <c r="F139" t="n">
-        <v>2832.8611</v>
+        <v>14.1643</v>
       </c>
       <c r="G139" t="n">
-        <v>356.2</v>
+        <v>356.2833333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>353</v>
       </c>
       <c r="F140" t="n">
-        <v>991.5014</v>
+        <v>2832.8611</v>
       </c>
       <c r="G140" t="n">
-        <v>356.1333333333333</v>
+        <v>356.2</v>
       </c>
       <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C141" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D141" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E141" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F141" t="n">
-        <v>399.3837</v>
+        <v>991.5014</v>
       </c>
       <c r="G141" t="n">
-        <v>356.05</v>
+        <v>356.1333333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C142" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D142" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E142" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>399.3837</v>
       </c>
       <c r="G142" t="n">
-        <v>355.9666666666666</v>
+        <v>356.05</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>353</v>
       </c>
       <c r="F143" t="n">
-        <v>113.3144</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>355.8833333333333</v>
+        <v>355.9666666666666</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C144" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D144" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E144" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F144" t="n">
-        <v>15278.3471</v>
+        <v>113.3144</v>
       </c>
       <c r="G144" t="n">
-        <v>355.7333333333333</v>
+        <v>355.8833333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>351</v>
       </c>
       <c r="C145" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D145" t="n">
         <v>351</v>
       </c>
       <c r="E145" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F145" t="n">
-        <v>15</v>
+        <v>15278.3471</v>
       </c>
       <c r="G145" t="n">
-        <v>355.6166666666667</v>
+        <v>355.7333333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>351</v>
       </c>
       <c r="F146" t="n">
-        <v>9.97720797</v>
+        <v>15</v>
       </c>
       <c r="G146" t="n">
-        <v>355.5166666666667</v>
+        <v>355.6166666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C147" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D147" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E147" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>9.97720797</v>
       </c>
       <c r="G147" t="n">
-        <v>355.4</v>
+        <v>355.5166666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>350</v>
       </c>
       <c r="F148" t="n">
-        <v>177.018</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="n">
-        <v>355.3</v>
+        <v>355.4</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>350</v>
       </c>
       <c r="F149" t="n">
-        <v>555</v>
+        <v>177.018</v>
       </c>
       <c r="G149" t="n">
-        <v>355.1666666666667</v>
+        <v>355.3</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C150" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D150" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E150" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F150" t="n">
-        <v>277.0831</v>
+        <v>555</v>
       </c>
       <c r="G150" t="n">
-        <v>355.0666666666667</v>
+        <v>355.1666666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C151" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D151" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E151" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F151" t="n">
-        <v>272.7375</v>
+        <v>277.0831</v>
       </c>
       <c r="G151" t="n">
-        <v>354.9333333333333</v>
+        <v>355.0666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C152" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D152" t="n">
         <v>350</v>
       </c>
       <c r="E152" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F152" t="n">
-        <v>8683.0524</v>
+        <v>272.7375</v>
       </c>
       <c r="G152" t="n">
-        <v>354.7833333333334</v>
+        <v>354.9333333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4340,18 +4798,21 @@
         <v>349</v>
       </c>
       <c r="D153" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E153" t="n">
         <v>349</v>
       </c>
       <c r="F153" t="n">
-        <v>1029.1314</v>
+        <v>8683.0524</v>
       </c>
       <c r="G153" t="n">
-        <v>354.6166666666667</v>
+        <v>354.7833333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C154" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D154" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E154" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F154" t="n">
-        <v>2481.6835</v>
+        <v>1029.1314</v>
       </c>
       <c r="G154" t="n">
-        <v>354.5</v>
+        <v>354.6166666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>350</v>
       </c>
       <c r="F155" t="n">
-        <v>1889.278</v>
+        <v>2481.6835</v>
       </c>
       <c r="G155" t="n">
-        <v>354.3833333333333</v>
+        <v>354.5</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4879,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C156" t="n">
         <v>350</v>
@@ -4421,15 +4888,18 @@
         <v>350</v>
       </c>
       <c r="E156" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F156" t="n">
-        <v>11144</v>
+        <v>1889.278</v>
       </c>
       <c r="G156" t="n">
-        <v>354.2666666666667</v>
+        <v>354.3833333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C157" t="n">
         <v>350</v>
@@ -4447,15 +4917,18 @@
         <v>350</v>
       </c>
       <c r="E157" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F157" t="n">
-        <v>3136.866</v>
+        <v>11144</v>
       </c>
       <c r="G157" t="n">
-        <v>354.1333333333333</v>
+        <v>354.2666666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>350</v>
       </c>
       <c r="F158" t="n">
-        <v>156.2989</v>
+        <v>3136.866</v>
       </c>
       <c r="G158" t="n">
-        <v>354</v>
+        <v>354.1333333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C159" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D159" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E159" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F159" t="n">
-        <v>1831.3967</v>
+        <v>156.2989</v>
       </c>
       <c r="G159" t="n">
-        <v>353.8666666666667</v>
+        <v>354</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>349</v>
       </c>
       <c r="C160" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D160" t="n">
         <v>349</v>
       </c>
       <c r="E160" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F160" t="n">
-        <v>3766.2404</v>
+        <v>1831.3967</v>
       </c>
       <c r="G160" t="n">
-        <v>353.7166666666666</v>
+        <v>353.8666666666667</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>349</v>
+      </c>
+      <c r="C161" t="n">
         <v>348</v>
       </c>
-      <c r="C161" t="n">
-        <v>347</v>
-      </c>
       <c r="D161" t="n">
+        <v>349</v>
+      </c>
+      <c r="E161" t="n">
         <v>348</v>
       </c>
-      <c r="E161" t="n">
-        <v>347</v>
-      </c>
       <c r="F161" t="n">
-        <v>840.0047</v>
+        <v>3766.2404</v>
       </c>
       <c r="G161" t="n">
-        <v>353.55</v>
+        <v>353.7166666666666</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,7 +5056,7 @@
         <v>348</v>
       </c>
       <c r="C162" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D162" t="n">
         <v>348</v>
@@ -4580,12 +5065,15 @@
         <v>347</v>
       </c>
       <c r="F162" t="n">
-        <v>24939.2713</v>
+        <v>840.0047</v>
       </c>
       <c r="G162" t="n">
-        <v>353.3833333333333</v>
+        <v>353.55</v>
       </c>
       <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4603,15 +5091,18 @@
         <v>348</v>
       </c>
       <c r="E163" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F163" t="n">
-        <v>3372.992</v>
+        <v>24939.2713</v>
       </c>
       <c r="G163" t="n">
-        <v>353.2166666666666</v>
+        <v>353.3833333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>348</v>
       </c>
       <c r="F164" t="n">
-        <v>981.4938</v>
+        <v>3372.992</v>
       </c>
       <c r="G164" t="n">
-        <v>353.05</v>
+        <v>353.2166666666666</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>348</v>
       </c>
       <c r="F165" t="n">
-        <v>985.2687</v>
+        <v>981.4938</v>
       </c>
       <c r="G165" t="n">
-        <v>352.8666666666667</v>
+        <v>353.05</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E166" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F166" t="n">
-        <v>46.101</v>
+        <v>985.2687</v>
       </c>
       <c r="G166" t="n">
-        <v>352.7</v>
+        <v>352.8666666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C167" t="n">
         <v>349</v>
       </c>
       <c r="D167" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E167" t="n">
         <v>349</v>
       </c>
       <c r="F167" t="n">
-        <v>501.9766</v>
+        <v>46.101</v>
       </c>
       <c r="G167" t="n">
-        <v>352.5333333333334</v>
+        <v>352.7</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C168" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D168" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E168" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F168" t="n">
-        <v>1512.9659</v>
+        <v>501.9766</v>
       </c>
       <c r="G168" t="n">
-        <v>352.3833333333333</v>
+        <v>352.5333333333334</v>
       </c>
       <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>348</v>
       </c>
       <c r="F169" t="n">
-        <v>786.1565000000001</v>
+        <v>1512.9659</v>
       </c>
       <c r="G169" t="n">
-        <v>352.2</v>
+        <v>352.3833333333333</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C170" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D170" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E170" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F170" t="n">
-        <v>760.545</v>
+        <v>786.1565000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>352.0333333333334</v>
+        <v>352.2</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C171" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D171" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E171" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F171" t="n">
-        <v>358.1775</v>
+        <v>760.545</v>
       </c>
       <c r="G171" t="n">
-        <v>351.85</v>
+        <v>352.0333333333334</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>348</v>
       </c>
       <c r="C172" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D172" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E172" t="n">
         <v>348</v>
       </c>
       <c r="F172" t="n">
-        <v>207.8751</v>
+        <v>358.1775</v>
       </c>
       <c r="G172" t="n">
-        <v>351.7166666666666</v>
+        <v>351.85</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,21 +5375,24 @@
         <v>348</v>
       </c>
       <c r="C173" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D173" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E173" t="n">
         <v>348</v>
       </c>
       <c r="F173" t="n">
-        <v>4755.9727</v>
+        <v>207.8751</v>
       </c>
       <c r="G173" t="n">
-        <v>351.5666666666667</v>
+        <v>351.7166666666666</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C174" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D174" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E174" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>4755.9727</v>
       </c>
       <c r="G174" t="n">
-        <v>351.45</v>
+        <v>351.5666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +5430,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C175" t="n">
         <v>349</v>
@@ -4915,15 +5439,18 @@
         <v>349</v>
       </c>
       <c r="E175" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F175" t="n">
-        <v>1231.787</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>351.3333333333333</v>
+        <v>351.45</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5459,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C176" t="n">
         <v>349</v>
@@ -4941,15 +5468,18 @@
         <v>349</v>
       </c>
       <c r="E176" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F176" t="n">
-        <v>4375.4019</v>
+        <v>1231.787</v>
       </c>
       <c r="G176" t="n">
-        <v>351.2166666666666</v>
+        <v>351.3333333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>349</v>
       </c>
       <c r="F177" t="n">
-        <v>359.5322</v>
+        <v>4375.4019</v>
       </c>
       <c r="G177" t="n">
-        <v>351.1166666666667</v>
+        <v>351.2166666666666</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C178" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D178" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E178" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F178" t="n">
-        <v>1556.5285</v>
+        <v>359.5322</v>
       </c>
       <c r="G178" t="n">
-        <v>351</v>
+        <v>351.1166666666667</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C179" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D179" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E179" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F179" t="n">
-        <v>839.734</v>
+        <v>1556.5285</v>
       </c>
       <c r="G179" t="n">
-        <v>350.8666666666667</v>
+        <v>351</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C180" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D180" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E180" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F180" t="n">
-        <v>350.105</v>
+        <v>839.734</v>
       </c>
       <c r="G180" t="n">
-        <v>350.75</v>
+        <v>350.8666666666667</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>350</v>
       </c>
       <c r="F181" t="n">
-        <v>104.28</v>
+        <v>350.105</v>
       </c>
       <c r="G181" t="n">
-        <v>350.6333333333333</v>
+        <v>350.75</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>350</v>
       </c>
       <c r="F182" t="n">
-        <v>127.5982</v>
+        <v>104.28</v>
       </c>
       <c r="G182" t="n">
-        <v>350.55</v>
+        <v>350.6333333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>350</v>
       </c>
       <c r="F183" t="n">
-        <v>4360.2756</v>
+        <v>127.5982</v>
       </c>
       <c r="G183" t="n">
-        <v>350.4333333333333</v>
+        <v>350.55</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C184" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D184" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E184" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F184" t="n">
-        <v>301</v>
+        <v>4360.2756</v>
       </c>
       <c r="G184" t="n">
-        <v>350.3333333333333</v>
+        <v>350.4333333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C185" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D185" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E185" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F185" t="n">
-        <v>15338.8525</v>
+        <v>301</v>
       </c>
       <c r="G185" t="n">
-        <v>350.2333333333333</v>
+        <v>350.3333333333333</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,12 +5761,15 @@
         <v>350</v>
       </c>
       <c r="F186" t="n">
-        <v>1000.1971</v>
+        <v>15338.8525</v>
       </c>
       <c r="G186" t="n">
-        <v>350.1833333333333</v>
+        <v>350.2333333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>350</v>
       </c>
       <c r="F187" t="n">
-        <v>4602.8721</v>
+        <v>1000.1971</v>
       </c>
       <c r="G187" t="n">
-        <v>350.1333333333333</v>
+        <v>350.1833333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>350</v>
       </c>
       <c r="F188" t="n">
-        <v>53.6599</v>
+        <v>4602.8721</v>
       </c>
       <c r="G188" t="n">
-        <v>350.1</v>
+        <v>350.1333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>350</v>
       </c>
       <c r="F189" t="n">
-        <v>316.1664</v>
+        <v>53.6599</v>
       </c>
       <c r="G189" t="n">
-        <v>350.0333333333334</v>
+        <v>350.1</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,21 +5868,24 @@
         <v>350</v>
       </c>
       <c r="C190" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D190" t="n">
         <v>350</v>
       </c>
       <c r="E190" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F190" t="n">
-        <v>6054.6884</v>
+        <v>316.1664</v>
       </c>
       <c r="G190" t="n">
-        <v>349.9666666666666</v>
+        <v>350.0333333333334</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C191" t="n">
         <v>349</v>
       </c>
       <c r="D191" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E191" t="n">
         <v>349</v>
       </c>
       <c r="F191" t="n">
-        <v>5087.0839</v>
+        <v>6054.6884</v>
       </c>
       <c r="G191" t="n">
-        <v>349.8833333333333</v>
+        <v>349.9666666666666</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>349</v>
       </c>
       <c r="F192" t="n">
-        <v>926.3321999999999</v>
+        <v>5087.0839</v>
       </c>
       <c r="G192" t="n">
-        <v>349.8166666666667</v>
+        <v>349.8833333333333</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C193" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D193" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E193" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>926.3321999999999</v>
       </c>
       <c r="G193" t="n">
         <v>349.8166666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>350</v>
       </c>
       <c r="F194" t="n">
-        <v>1071.4661</v>
+        <v>10</v>
       </c>
       <c r="G194" t="n">
-        <v>349.7666666666667</v>
+        <v>349.8166666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>350</v>
       </c>
       <c r="F195" t="n">
-        <v>1131.5528</v>
+        <v>1071.4661</v>
       </c>
       <c r="G195" t="n">
-        <v>349.75</v>
+        <v>349.7666666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>350</v>
       </c>
       <c r="F196" t="n">
-        <v>1555.7314</v>
+        <v>1131.5528</v>
       </c>
       <c r="G196" t="n">
-        <v>349.7</v>
+        <v>349.75</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C197" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D197" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E197" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F197" t="n">
-        <v>2430.4694</v>
+        <v>1555.7314</v>
       </c>
       <c r="G197" t="n">
-        <v>349.6333333333333</v>
+        <v>349.7</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C198" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D198" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E198" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F198" t="n">
-        <v>10305.8725</v>
+        <v>2430.4694</v>
       </c>
       <c r="G198" t="n">
-        <v>349.55</v>
+        <v>349.6333333333333</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C199" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D199" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E199" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F199" t="n">
-        <v>2214.6414</v>
+        <v>10305.8725</v>
       </c>
       <c r="G199" t="n">
-        <v>349.4833333333333</v>
+        <v>349.55</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>349</v>
       </c>
       <c r="F200" t="n">
-        <v>1274.9258</v>
+        <v>2214.6414</v>
       </c>
       <c r="G200" t="n">
-        <v>349.4166666666667</v>
+        <v>349.4833333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>349</v>
       </c>
       <c r="F201" t="n">
-        <v>1160.1824</v>
+        <v>1274.9258</v>
       </c>
       <c r="G201" t="n">
-        <v>349.3833333333333</v>
+        <v>349.4166666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C202" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D202" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E202" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F202" t="n">
-        <v>28</v>
+        <v>1160.1824</v>
       </c>
       <c r="G202" t="n">
-        <v>349.3333333333333</v>
+        <v>349.3833333333333</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>350</v>
       </c>
       <c r="F203" t="n">
-        <v>1388.29</v>
+        <v>28</v>
       </c>
       <c r="G203" t="n">
-        <v>349.2833333333334</v>
+        <v>349.3333333333333</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C204" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D204" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E204" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F204" t="n">
-        <v>1886.3896</v>
+        <v>1388.29</v>
       </c>
       <c r="G204" t="n">
         <v>349.2833333333334</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C205" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D205" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E205" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F205" t="n">
-        <v>1548.1425</v>
+        <v>1886.3896</v>
       </c>
       <c r="G205" t="n">
-        <v>349.2333333333333</v>
+        <v>349.2833333333334</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>348</v>
       </c>
       <c r="F206" t="n">
-        <v>70</v>
+        <v>1548.1425</v>
       </c>
       <c r="G206" t="n">
-        <v>349.1833333333333</v>
+        <v>349.2333333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C207" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D207" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E207" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F207" t="n">
-        <v>1296</v>
+        <v>70</v>
       </c>
       <c r="G207" t="n">
         <v>349.1833333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C208" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D208" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E208" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F208" t="n">
-        <v>2</v>
+        <v>1296</v>
       </c>
       <c r="G208" t="n">
-        <v>349.1666666666667</v>
+        <v>349.1833333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>349</v>
       </c>
       <c r="F209" t="n">
-        <v>892.3024</v>
+        <v>2</v>
       </c>
       <c r="G209" t="n">
-        <v>349.15</v>
+        <v>349.1666666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>349</v>
       </c>
       <c r="F210" t="n">
-        <v>345.4468</v>
+        <v>892.3024</v>
       </c>
       <c r="G210" t="n">
-        <v>349.1166666666667</v>
+        <v>349.15</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,7 +6474,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C211" t="n">
         <v>349</v>
@@ -5851,15 +6483,18 @@
         <v>349</v>
       </c>
       <c r="E211" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F211" t="n">
-        <v>475.5159</v>
+        <v>345.4468</v>
       </c>
       <c r="G211" t="n">
-        <v>349.1</v>
+        <v>349.1166666666667</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +6503,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C212" t="n">
         <v>349</v>
@@ -5880,12 +6515,15 @@
         <v>348</v>
       </c>
       <c r="F212" t="n">
-        <v>1054.1717</v>
+        <v>475.5159</v>
       </c>
       <c r="G212" t="n">
         <v>349.1</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5903,15 +6541,18 @@
         <v>349</v>
       </c>
       <c r="E213" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F213" t="n">
-        <v>181.9494</v>
+        <v>1054.1717</v>
       </c>
       <c r="G213" t="n">
         <v>349.1</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>349</v>
       </c>
       <c r="F214" t="n">
-        <v>976.5122</v>
+        <v>181.9494</v>
       </c>
       <c r="G214" t="n">
-        <v>349.0833333333333</v>
+        <v>349.1</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>349</v>
       </c>
       <c r="F215" t="n">
-        <v>257.8796</v>
+        <v>976.5122</v>
       </c>
       <c r="G215" t="n">
-        <v>349.0666666666667</v>
+        <v>349.0833333333333</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>349</v>
       </c>
       <c r="F216" t="n">
-        <v>93.1677</v>
+        <v>257.8796</v>
       </c>
       <c r="G216" t="n">
-        <v>349.05</v>
+        <v>349.0666666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>349</v>
       </c>
       <c r="F217" t="n">
-        <v>364</v>
+        <v>93.1677</v>
       </c>
       <c r="G217" t="n">
-        <v>349.0333333333334</v>
+        <v>349.05</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>349</v>
       </c>
       <c r="F218" t="n">
-        <v>50</v>
+        <v>364</v>
       </c>
       <c r="G218" t="n">
-        <v>349.0166666666667</v>
+        <v>349.0333333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>349</v>
       </c>
       <c r="F219" t="n">
-        <v>116.5089</v>
+        <v>50</v>
       </c>
       <c r="G219" t="n">
         <v>349.0166666666667</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6079,21 +6738,24 @@
         <v>349</v>
       </c>
       <c r="C220" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D220" t="n">
         <v>349</v>
       </c>
       <c r="E220" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F220" t="n">
-        <v>369</v>
+        <v>116.5089</v>
       </c>
       <c r="G220" t="n">
         <v>349.0166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6105,21 +6767,24 @@
         <v>349</v>
       </c>
       <c r="C221" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D221" t="n">
         <v>349</v>
       </c>
       <c r="E221" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F221" t="n">
-        <v>164.8954</v>
+        <v>369</v>
       </c>
       <c r="G221" t="n">
-        <v>349.05</v>
+        <v>349.0166666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C222" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D222" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E222" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F222" t="n">
-        <v>1689.6285</v>
+        <v>164.8954</v>
       </c>
       <c r="G222" t="n">
-        <v>349.0833333333333</v>
+        <v>349.05</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6822,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C223" t="n">
         <v>350</v>
@@ -6163,15 +6831,18 @@
         <v>350</v>
       </c>
       <c r="E223" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F223" t="n">
-        <v>2541.9073</v>
+        <v>1689.6285</v>
       </c>
       <c r="G223" t="n">
-        <v>349.1166666666667</v>
+        <v>349.0833333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6183,21 +6854,24 @@
         <v>348</v>
       </c>
       <c r="C224" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D224" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E224" t="n">
         <v>348</v>
       </c>
       <c r="F224" t="n">
-        <v>3027.5477</v>
+        <v>2541.9073</v>
       </c>
       <c r="G224" t="n">
         <v>349.1166666666667</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C225" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D225" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E225" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F225" t="n">
-        <v>307</v>
+        <v>3027.5477</v>
       </c>
       <c r="G225" t="n">
-        <v>349.1333333333333</v>
+        <v>349.1166666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>349</v>
       </c>
       <c r="F226" t="n">
-        <v>888.3129</v>
+        <v>307</v>
       </c>
       <c r="G226" t="n">
         <v>349.1333333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C227" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D227" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E227" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F227" t="n">
-        <v>847.1032</v>
+        <v>888.3129</v>
       </c>
       <c r="G227" t="n">
-        <v>349.1166666666667</v>
+        <v>349.1333333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C228" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D228" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E228" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F228" t="n">
-        <v>1275.089</v>
+        <v>847.1032</v>
       </c>
       <c r="G228" t="n">
-        <v>349.1333333333333</v>
+        <v>349.1166666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,12 +7008,15 @@
         <v>349</v>
       </c>
       <c r="F229" t="n">
-        <v>1024.939</v>
+        <v>1275.089</v>
       </c>
       <c r="G229" t="n">
-        <v>349.15</v>
+        <v>349.1333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C230" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D230" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E230" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F230" t="n">
-        <v>75.9076</v>
+        <v>1024.939</v>
       </c>
       <c r="G230" t="n">
-        <v>349.1166666666667</v>
+        <v>349.15</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C231" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D231" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E231" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>75.9076</v>
       </c>
       <c r="G231" t="n">
-        <v>349.1333333333333</v>
+        <v>349.1166666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>349</v>
       </c>
       <c r="F232" t="n">
-        <v>151.0663</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
         <v>349.1333333333333</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>349</v>
       </c>
       <c r="F233" t="n">
-        <v>100.1708</v>
+        <v>151.0663</v>
       </c>
       <c r="G233" t="n">
-        <v>349.15</v>
+        <v>349.1333333333333</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>349</v>
       </c>
       <c r="F234" t="n">
-        <v>361.25</v>
+        <v>100.1708</v>
       </c>
       <c r="G234" t="n">
         <v>349.15</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C235" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D235" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E235" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F235" t="n">
-        <v>581.1781</v>
+        <v>361.25</v>
       </c>
       <c r="G235" t="n">
-        <v>349.1333333333333</v>
+        <v>349.15</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6495,21 +7202,24 @@
         <v>348</v>
       </c>
       <c r="C236" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D236" t="n">
         <v>348</v>
       </c>
       <c r="E236" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F236" t="n">
-        <v>820.8706</v>
+        <v>581.1781</v>
       </c>
       <c r="G236" t="n">
-        <v>349.1</v>
+        <v>349.1333333333333</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C237" t="n">
         <v>347</v>
       </c>
       <c r="D237" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E237" t="n">
         <v>347</v>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>820.8706</v>
       </c>
       <c r="G237" t="n">
-        <v>349.0666666666667</v>
+        <v>349.1</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,12 +7269,15 @@
         <v>347</v>
       </c>
       <c r="F238" t="n">
-        <v>690.7231</v>
+        <v>200</v>
       </c>
       <c r="G238" t="n">
-        <v>349.05</v>
+        <v>349.0666666666667</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6573,21 +7289,24 @@
         <v>347</v>
       </c>
       <c r="C239" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D239" t="n">
         <v>347</v>
       </c>
       <c r="E239" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F239" t="n">
-        <v>3349</v>
+        <v>690.7231</v>
       </c>
       <c r="G239" t="n">
-        <v>349</v>
+        <v>349.05</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C240" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D240" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E240" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F240" t="n">
-        <v>9660</v>
+        <v>3349</v>
       </c>
       <c r="G240" t="n">
         <v>349</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C241" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D241" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E241" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F241" t="n">
-        <v>46.3366</v>
+        <v>9660</v>
       </c>
       <c r="G241" t="n">
-        <v>349.05</v>
+        <v>349</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,7 +7373,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C242" t="n">
         <v>353</v>
@@ -6657,15 +7382,18 @@
         <v>353</v>
       </c>
       <c r="E242" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F242" t="n">
-        <v>3127.4334</v>
+        <v>46.3366</v>
       </c>
       <c r="G242" t="n">
-        <v>349.1</v>
+        <v>349.05</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>353</v>
       </c>
       <c r="F243" t="n">
-        <v>1367.87817563</v>
+        <v>3127.4334</v>
       </c>
       <c r="G243" t="n">
-        <v>349.15</v>
+        <v>349.1</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C244" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D244" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E244" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F244" t="n">
-        <v>243.0653</v>
+        <v>1367.87817563</v>
       </c>
       <c r="G244" t="n">
-        <v>349.2</v>
+        <v>349.15</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6738,12 +7472,15 @@
         <v>352</v>
       </c>
       <c r="F245" t="n">
-        <v>194.9545</v>
+        <v>243.0653</v>
       </c>
       <c r="G245" t="n">
-        <v>349.2333333333333</v>
+        <v>349.2</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C246" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D246" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E246" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F246" t="n">
-        <v>46.8946</v>
+        <v>194.9545</v>
       </c>
       <c r="G246" t="n">
-        <v>349.25</v>
+        <v>349.2333333333333</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6781,21 +7521,24 @@
         <v>351</v>
       </c>
       <c r="C247" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D247" t="n">
         <v>351</v>
       </c>
       <c r="E247" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F247" t="n">
-        <v>563.1974</v>
+        <v>46.8946</v>
       </c>
       <c r="G247" t="n">
         <v>349.25</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>350</v>
       </c>
       <c r="F248" t="n">
-        <v>2883.5948</v>
+        <v>563.1974</v>
       </c>
       <c r="G248" t="n">
         <v>349.25</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,10 +7576,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C249" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D249" t="n">
         <v>351</v>
@@ -6842,12 +7588,15 @@
         <v>350</v>
       </c>
       <c r="F249" t="n">
-        <v>2894.6813</v>
+        <v>2883.5948</v>
       </c>
       <c r="G249" t="n">
-        <v>349.2666666666667</v>
+        <v>349.25</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C250" t="n">
         <v>351</v>
       </c>
       <c r="D250" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E250" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F250" t="n">
-        <v>1274.5975</v>
+        <v>2894.6813</v>
       </c>
       <c r="G250" t="n">
-        <v>349.3</v>
+        <v>349.2666666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
+        <v>351</v>
+      </c>
+      <c r="C251" t="n">
+        <v>351</v>
+      </c>
+      <c r="D251" t="n">
         <v>352</v>
       </c>
-      <c r="C251" t="n">
-        <v>354</v>
-      </c>
-      <c r="D251" t="n">
-        <v>354</v>
-      </c>
       <c r="E251" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F251" t="n">
-        <v>125.8778</v>
+        <v>1274.5975</v>
       </c>
       <c r="G251" t="n">
-        <v>349.3833333333333</v>
+        <v>349.3</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C252" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D252" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E252" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F252" t="n">
-        <v>13.0714</v>
+        <v>125.8778</v>
       </c>
       <c r="G252" t="n">
-        <v>349.4166666666667</v>
+        <v>349.3833333333333</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C253" t="n">
         <v>351</v>
       </c>
       <c r="D253" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E253" t="n">
         <v>351</v>
       </c>
       <c r="F253" t="n">
-        <v>1413.4198</v>
+        <v>13.0714</v>
       </c>
       <c r="G253" t="n">
-        <v>349.4333333333333</v>
+        <v>349.4166666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,10 +7721,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>352</v>
+      </c>
+      <c r="C254" t="n">
         <v>351</v>
-      </c>
-      <c r="C254" t="n">
-        <v>353</v>
       </c>
       <c r="D254" t="n">
         <v>353</v>
@@ -6972,12 +7733,15 @@
         <v>351</v>
       </c>
       <c r="F254" t="n">
-        <v>1103.1398</v>
+        <v>1413.4198</v>
       </c>
       <c r="G254" t="n">
-        <v>349.4833333333333</v>
+        <v>349.4333333333333</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C255" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D255" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E255" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F255" t="n">
-        <v>28.6246</v>
+        <v>1103.1398</v>
       </c>
       <c r="G255" t="n">
-        <v>349.55</v>
+        <v>349.4833333333333</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C256" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D256" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E256" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F256" t="n">
-        <v>347.8672</v>
+        <v>28.6246</v>
       </c>
       <c r="G256" t="n">
-        <v>349.6333333333333</v>
+        <v>349.55</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7050,12 +7820,15 @@
         <v>355</v>
       </c>
       <c r="F257" t="n">
-        <v>3</v>
+        <v>347.8672</v>
       </c>
       <c r="G257" t="n">
-        <v>349.7333333333333</v>
+        <v>349.6333333333333</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7076,12 +7849,15 @@
         <v>355</v>
       </c>
       <c r="F258" t="n">
-        <v>3489.1294</v>
+        <v>3</v>
       </c>
       <c r="G258" t="n">
-        <v>349.85</v>
+        <v>349.7333333333333</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7102,12 +7878,15 @@
         <v>355</v>
       </c>
       <c r="F259" t="n">
-        <v>61.1042</v>
+        <v>3489.1294</v>
       </c>
       <c r="G259" t="n">
-        <v>349.95</v>
+        <v>349.85</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,12 +7907,15 @@
         <v>355</v>
       </c>
       <c r="F260" t="n">
-        <v>656.2515</v>
+        <v>61.1042</v>
       </c>
       <c r="G260" t="n">
-        <v>350.05</v>
+        <v>349.95</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C261" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D261" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E261" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F261" t="n">
-        <v>518.7271</v>
+        <v>656.2515</v>
       </c>
       <c r="G261" t="n">
-        <v>350.1333333333333</v>
+        <v>350.05</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7171,21 +7956,24 @@
         <v>354</v>
       </c>
       <c r="C262" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D262" t="n">
         <v>354</v>
       </c>
       <c r="E262" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F262" t="n">
-        <v>502.004</v>
+        <v>518.7271</v>
       </c>
       <c r="G262" t="n">
-        <v>350.1833333333333</v>
+        <v>350.1333333333333</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7206,12 +7994,15 @@
         <v>353</v>
       </c>
       <c r="F263" t="n">
-        <v>4397.6526</v>
+        <v>502.004</v>
       </c>
       <c r="G263" t="n">
-        <v>350.2333333333333</v>
+        <v>350.1833333333333</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C264" t="n">
         <v>353</v>
       </c>
       <c r="D264" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E264" t="n">
         <v>353</v>
       </c>
       <c r="F264" t="n">
-        <v>1647.7344</v>
+        <v>4397.6526</v>
       </c>
       <c r="G264" t="n">
-        <v>350.3</v>
+        <v>350.2333333333333</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C265" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D265" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E265" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F265" t="n">
-        <v>320</v>
+        <v>1647.7344</v>
       </c>
       <c r="G265" t="n">
-        <v>350.4166666666667</v>
+        <v>350.3</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>355</v>
       </c>
       <c r="F266" t="n">
-        <v>229.1525</v>
+        <v>320</v>
       </c>
       <c r="G266" t="n">
-        <v>350.5333333333334</v>
+        <v>350.4166666666667</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,24 +8098,27 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C267" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D267" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E267" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F267" t="n">
-        <v>1161.1531</v>
+        <v>229.1525</v>
       </c>
       <c r="G267" t="n">
-        <v>350.6333333333333</v>
+        <v>350.5333333333334</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C268" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D268" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E268" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F268" t="n">
-        <v>9690.322399999999</v>
+        <v>1161.1531</v>
       </c>
       <c r="G268" t="n">
-        <v>350.7666666666667</v>
+        <v>350.6333333333333</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7362,12 +8168,15 @@
         <v>357</v>
       </c>
       <c r="F269" t="n">
-        <v>2134.9805</v>
+        <v>9690.322399999999</v>
       </c>
       <c r="G269" t="n">
-        <v>350.9</v>
+        <v>350.7666666666667</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C270" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D270" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E270" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F270" t="n">
-        <v>10539.485</v>
+        <v>2134.9805</v>
       </c>
       <c r="G270" t="n">
-        <v>351.0166666666667</v>
+        <v>350.9</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7414,12 +8226,15 @@
         <v>356</v>
       </c>
       <c r="F271" t="n">
-        <v>833.5653</v>
+        <v>10539.485</v>
       </c>
       <c r="G271" t="n">
-        <v>351.1333333333333</v>
+        <v>351.0166666666667</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7431,21 +8246,24 @@
         <v>356</v>
       </c>
       <c r="C272" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D272" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E272" t="n">
         <v>356</v>
       </c>
       <c r="F272" t="n">
-        <v>4684.8013</v>
+        <v>833.5653</v>
       </c>
       <c r="G272" t="n">
-        <v>351.2833333333334</v>
+        <v>351.1333333333333</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C273" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D273" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E273" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F273" t="n">
-        <v>282.822</v>
+        <v>4684.8013</v>
       </c>
       <c r="G273" t="n">
-        <v>351.4166666666667</v>
+        <v>351.2833333333334</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7492,12 +8313,15 @@
         <v>357</v>
       </c>
       <c r="F274" t="n">
-        <v>111</v>
+        <v>282.822</v>
       </c>
       <c r="G274" t="n">
-        <v>351.55</v>
+        <v>351.4166666666667</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C275" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D275" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E275" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F275" t="n">
-        <v>322.6237</v>
+        <v>111</v>
       </c>
       <c r="G275" t="n">
-        <v>351.6666666666667</v>
+        <v>351.55</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7535,21 +8362,24 @@
         <v>356</v>
       </c>
       <c r="C276" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D276" t="n">
         <v>356</v>
       </c>
       <c r="E276" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F276" t="n">
-        <v>3600</v>
+        <v>322.6237</v>
       </c>
       <c r="G276" t="n">
-        <v>351.7666666666667</v>
+        <v>351.6666666666667</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7561,21 +8391,24 @@
         <v>356</v>
       </c>
       <c r="C277" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D277" t="n">
         <v>356</v>
       </c>
       <c r="E277" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F277" t="n">
-        <v>45</v>
+        <v>3600</v>
       </c>
       <c r="G277" t="n">
-        <v>351.8833333333333</v>
+        <v>351.7666666666667</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C278" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D278" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E278" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F278" t="n">
-        <v>332.111</v>
+        <v>45</v>
       </c>
       <c r="G278" t="n">
-        <v>351.9833333333333</v>
+        <v>351.8833333333333</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,24 +8446,27 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C279" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D279" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E279" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F279" t="n">
-        <v>2708.6</v>
+        <v>332.111</v>
       </c>
       <c r="G279" t="n">
-        <v>352.1166666666667</v>
+        <v>351.9833333333333</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7639,21 +8478,24 @@
         <v>356</v>
       </c>
       <c r="C280" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D280" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E280" t="n">
         <v>356</v>
       </c>
       <c r="F280" t="n">
-        <v>155</v>
+        <v>2708.6</v>
       </c>
       <c r="G280" t="n">
-        <v>352.25</v>
+        <v>352.1166666666667</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C281" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D281" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E281" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F281" t="n">
-        <v>5032.9148</v>
+        <v>155</v>
       </c>
       <c r="G281" t="n">
-        <v>352.4</v>
+        <v>352.25</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,7 +8533,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C282" t="n">
         <v>358</v>
@@ -7697,15 +8542,18 @@
         <v>358</v>
       </c>
       <c r="E282" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F282" t="n">
-        <v>159.9608</v>
+        <v>5032.9148</v>
       </c>
       <c r="G282" t="n">
-        <v>352.5333333333334</v>
+        <v>352.4</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,24 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C283" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D283" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E283" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F283" t="n">
-        <v>3967.3828</v>
+        <v>159.9608</v>
       </c>
       <c r="G283" t="n">
-        <v>352.6333333333333</v>
+        <v>352.5333333333334</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7740,544 +8591,27 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C284" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D284" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E284" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F284" t="n">
-        <v>3155.0391</v>
+        <v>3967.3828</v>
       </c>
       <c r="G284" t="n">
-        <v>352.8</v>
+        <v>352.6333333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>358</v>
-      </c>
-      <c r="C285" t="n">
-        <v>358</v>
-      </c>
-      <c r="D285" t="n">
-        <v>358</v>
-      </c>
-      <c r="E285" t="n">
-        <v>358</v>
-      </c>
-      <c r="F285" t="n">
-        <v>73.1948</v>
-      </c>
-      <c r="G285" t="n">
-        <v>352.95</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>358</v>
-      </c>
-      <c r="C286" t="n">
-        <v>358</v>
-      </c>
-      <c r="D286" t="n">
-        <v>358</v>
-      </c>
-      <c r="E286" t="n">
-        <v>358</v>
-      </c>
-      <c r="F286" t="n">
-        <v>242.0953</v>
-      </c>
-      <c r="G286" t="n">
-        <v>353.1</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>358</v>
-      </c>
-      <c r="C287" t="n">
-        <v>358</v>
-      </c>
-      <c r="D287" t="n">
-        <v>358</v>
-      </c>
-      <c r="E287" t="n">
-        <v>358</v>
-      </c>
-      <c r="F287" t="n">
-        <v>177.3316</v>
-      </c>
-      <c r="G287" t="n">
-        <v>353.2666666666667</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>359</v>
-      </c>
-      <c r="C288" t="n">
-        <v>359</v>
-      </c>
-      <c r="D288" t="n">
-        <v>359</v>
-      </c>
-      <c r="E288" t="n">
-        <v>359</v>
-      </c>
-      <c r="F288" t="n">
-        <v>835</v>
-      </c>
-      <c r="G288" t="n">
-        <v>353.4333333333333</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>358</v>
-      </c>
-      <c r="C289" t="n">
-        <v>358</v>
-      </c>
-      <c r="D289" t="n">
-        <v>358</v>
-      </c>
-      <c r="E289" t="n">
-        <v>358</v>
-      </c>
-      <c r="F289" t="n">
-        <v>5</v>
-      </c>
-      <c r="G289" t="n">
-        <v>353.5833333333333</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>358</v>
-      </c>
-      <c r="C290" t="n">
-        <v>358</v>
-      </c>
-      <c r="D290" t="n">
-        <v>358</v>
-      </c>
-      <c r="E290" t="n">
-        <v>358</v>
-      </c>
-      <c r="F290" t="n">
-        <v>25</v>
-      </c>
-      <c r="G290" t="n">
-        <v>353.7666666666667</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>359</v>
-      </c>
-      <c r="C291" t="n">
-        <v>359</v>
-      </c>
-      <c r="D291" t="n">
-        <v>359</v>
-      </c>
-      <c r="E291" t="n">
-        <v>359</v>
-      </c>
-      <c r="F291" t="n">
-        <v>100</v>
-      </c>
-      <c r="G291" t="n">
-        <v>353.9333333333333</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>359</v>
-      </c>
-      <c r="C292" t="n">
-        <v>359</v>
-      </c>
-      <c r="D292" t="n">
-        <v>359</v>
-      </c>
-      <c r="E292" t="n">
-        <v>359</v>
-      </c>
-      <c r="F292" t="n">
-        <v>3300.0722</v>
-      </c>
-      <c r="G292" t="n">
-        <v>354.1</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>359</v>
-      </c>
-      <c r="C293" t="n">
-        <v>359</v>
-      </c>
-      <c r="D293" t="n">
-        <v>359</v>
-      </c>
-      <c r="E293" t="n">
-        <v>359</v>
-      </c>
-      <c r="F293" t="n">
-        <v>3148.8147</v>
-      </c>
-      <c r="G293" t="n">
-        <v>354.2666666666667</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>359</v>
-      </c>
-      <c r="C294" t="n">
-        <v>359</v>
-      </c>
-      <c r="D294" t="n">
-        <v>359</v>
-      </c>
-      <c r="E294" t="n">
-        <v>359</v>
-      </c>
-      <c r="F294" t="n">
-        <v>12706.3642</v>
-      </c>
-      <c r="G294" t="n">
-        <v>354.4333333333333</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>359</v>
-      </c>
-      <c r="C295" t="n">
-        <v>359</v>
-      </c>
-      <c r="D295" t="n">
-        <v>359</v>
-      </c>
-      <c r="E295" t="n">
-        <v>359</v>
-      </c>
-      <c r="F295" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="G295" t="n">
-        <v>354.6166666666667</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>360</v>
-      </c>
-      <c r="C296" t="n">
-        <v>361</v>
-      </c>
-      <c r="D296" t="n">
-        <v>361</v>
-      </c>
-      <c r="E296" t="n">
-        <v>360</v>
-      </c>
-      <c r="F296" t="n">
-        <v>56417.2733</v>
-      </c>
-      <c r="G296" t="n">
-        <v>354.85</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>360</v>
-      </c>
-      <c r="C297" t="n">
-        <v>362</v>
-      </c>
-      <c r="D297" t="n">
-        <v>362</v>
-      </c>
-      <c r="E297" t="n">
-        <v>360</v>
-      </c>
-      <c r="F297" t="n">
-        <v>441.0837</v>
-      </c>
-      <c r="G297" t="n">
-        <v>355.1</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>360</v>
-      </c>
-      <c r="C298" t="n">
-        <v>362</v>
-      </c>
-      <c r="D298" t="n">
-        <v>362</v>
-      </c>
-      <c r="E298" t="n">
-        <v>360</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1704.1278</v>
-      </c>
-      <c r="G298" t="n">
-        <v>355.35</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>361</v>
-      </c>
-      <c r="C299" t="n">
-        <v>361</v>
-      </c>
-      <c r="D299" t="n">
-        <v>361</v>
-      </c>
-      <c r="E299" t="n">
-        <v>361</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1134.8144</v>
-      </c>
-      <c r="G299" t="n">
-        <v>355.6</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>360</v>
-      </c>
-      <c r="C300" t="n">
-        <v>361</v>
-      </c>
-      <c r="D300" t="n">
-        <v>361</v>
-      </c>
-      <c r="E300" t="n">
-        <v>360</v>
-      </c>
-      <c r="F300" t="n">
-        <v>7187.9244</v>
-      </c>
-      <c r="G300" t="n">
-        <v>355.7833333333334</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>361</v>
-      </c>
-      <c r="C301" t="n">
-        <v>361</v>
-      </c>
-      <c r="D301" t="n">
-        <v>361</v>
-      </c>
-      <c r="E301" t="n">
-        <v>361</v>
-      </c>
-      <c r="F301" t="n">
-        <v>8201.0581</v>
-      </c>
-      <c r="G301" t="n">
-        <v>355.9166666666667</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>361</v>
-      </c>
-      <c r="C302" t="n">
-        <v>362</v>
-      </c>
-      <c r="D302" t="n">
-        <v>362</v>
-      </c>
-      <c r="E302" t="n">
-        <v>361</v>
-      </c>
-      <c r="F302" t="n">
-        <v>1320.8688</v>
-      </c>
-      <c r="G302" t="n">
-        <v>356.0666666666667</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>362</v>
-      </c>
-      <c r="C303" t="n">
-        <v>362</v>
-      </c>
-      <c r="D303" t="n">
-        <v>362</v>
-      </c>
-      <c r="E303" t="n">
-        <v>362</v>
-      </c>
-      <c r="F303" t="n">
-        <v>72.1491</v>
-      </c>
-      <c r="G303" t="n">
-        <v>356.2166666666666</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>361</v>
-      </c>
-      <c r="C304" t="n">
-        <v>362</v>
-      </c>
-      <c r="D304" t="n">
-        <v>362</v>
-      </c>
-      <c r="E304" t="n">
-        <v>361</v>
-      </c>
-      <c r="F304" t="n">
-        <v>107.9747</v>
-      </c>
-      <c r="G304" t="n">
-        <v>356.3833333333333</v>
-      </c>
-      <c r="H304" t="n">
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
